--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3942862.643429938</v>
+        <v>4048709.870444609</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498525</v>
+        <v>416855.1052283178</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7155592.926047232</v>
+        <v>7135141.641162916</v>
       </c>
     </row>
     <row r="11">
@@ -659,22 +661,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>172.2358222137727</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>396.063616700677</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -826,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>69.63957399764149</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>202.5988208093992</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>255.8610542575275</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>192.9533909753964</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>44.17970120049795</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1104,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>114.3545007727033</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>247.0641803450467</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2347568737161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>25.01141625626368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>166.8084805883475</v>
       </c>
     </row>
     <row r="11">
@@ -1367,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>26.05480806223599</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>34.0049084329469</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>36.21070476472267</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2013,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2257,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>38.21875275158355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>67.99491930587892</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2372,7 +2374,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>211.8986685707647</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2758,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>120.4589790596738</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>73.44478684180632</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065884</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>99.43007309479287</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="32">
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784686</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808196</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>46.35517081455926</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>19.51567534721111</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808158</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3557,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>105.9742079424061</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096051</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065882</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002292</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969975</v>
+        <v>100.2041656279966</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>35.56815683447337</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4183,10 +4185,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>127.6210071331219</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1975.31341879663</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="C2" t="n">
-        <v>1606.350901856219</v>
+        <v>906.1570541554036</v>
       </c>
       <c r="D2" t="n">
-        <v>1248.085203249468</v>
+        <v>547.8913555486531</v>
       </c>
       <c r="E2" t="n">
-        <v>862.2969506512238</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F2" t="n">
-        <v>451.3110458616163</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4328,10 +4330,10 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>1975.31341879663</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1975.31341879663</v>
+        <v>1669.762144392295</v>
       </c>
       <c r="X2" t="n">
-        <v>1975.31341879663</v>
+        <v>1296.296386131215</v>
       </c>
       <c r="Y2" t="n">
-        <v>1975.31341879663</v>
+        <v>906.1570541554036</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4403,7 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,25 +4412,25 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>482.9033490193029</v>
+        <v>560.1394111735143</v>
       </c>
       <c r="L3" t="n">
-        <v>777.6069060507746</v>
+        <v>854.8429682049862</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009995</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.15405360694</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783102</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1758.982323005929</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="C4" t="n">
-        <v>1590.046140078022</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D4" t="n">
-        <v>1439.929500665686</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E4" t="n">
-        <v>1292.016407083293</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F4" t="n">
-        <v>1145.126459585383</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936614</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.60916787878</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627706</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294982</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035317</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.981932571481</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324693</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496682</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>2459.755921915737</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S4" t="n">
-        <v>2389.412917877716</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T4" t="n">
-        <v>2389.412917877716</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>2389.412917877716</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>2389.412917877716</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="W4" t="n">
-        <v>2389.412917877716</v>
+        <v>919.7040282282233</v>
       </c>
       <c r="X4" t="n">
-        <v>2161.423366979699</v>
+        <v>919.7040282282233</v>
       </c>
       <c r="Y4" t="n">
-        <v>1940.630787836168</v>
+        <v>698.9114490846931</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.376265094905</v>
+        <v>1507.692260213069</v>
       </c>
       <c r="C5" t="n">
-        <v>1186.376265094905</v>
+        <v>1138.729743272658</v>
       </c>
       <c r="D5" t="n">
-        <v>828.1105664881545</v>
+        <v>780.4640446659073</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881545</v>
+        <v>394.6757920676631</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>387.7302913184596</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>376.0659450831525</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>3020.412738009603</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="U5" t="n">
-        <v>3020.412738009603</v>
+        <v>2228.894479532452</v>
       </c>
       <c r="V5" t="n">
-        <v>2689.349850666033</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="W5" t="n">
-        <v>2336.581195395918</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="X5" t="n">
-        <v>1963.115437134838</v>
+        <v>1897.831592188881</v>
       </c>
       <c r="Y5" t="n">
-        <v>1572.976105159027</v>
+        <v>1507.692260213069</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>815.1145481251077</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1178.376567084328</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1565.661695681273</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593.9942835760974</v>
+        <v>620.8411572468201</v>
       </c>
       <c r="C7" t="n">
-        <v>425.0581006481905</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="D7" t="n">
-        <v>425.0581006481905</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396067</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396067</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143257</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312205</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1324.307775494254</v>
       </c>
       <c r="U7" t="n">
-        <v>1513.842048484845</v>
+        <v>1324.307775494254</v>
       </c>
       <c r="V7" t="n">
-        <v>1513.842048484845</v>
+        <v>1069.623287288367</v>
       </c>
       <c r="W7" t="n">
-        <v>1224.424878447885</v>
+        <v>1069.623287288367</v>
       </c>
       <c r="X7" t="n">
-        <v>996.4353275498672</v>
+        <v>841.6337363903502</v>
       </c>
       <c r="Y7" t="n">
-        <v>775.6427484063371</v>
+        <v>620.8411572468201</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1202.59552936621</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>442.5171852816089</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230819</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.228484740842</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.250581723853</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400158</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926628</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>2228.894479532453</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>1979.334701406143</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>1979.334701406143</v>
       </c>
       <c r="W8" t="n">
-        <v>2535.034709923658</v>
+        <v>1979.334701406143</v>
       </c>
       <c r="X8" t="n">
-        <v>2535.034709923658</v>
+        <v>1979.334701406143</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697682</v>
+        <v>1589.195369430331</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>423.1489515180663</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>870.3292415458907</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1233.591260505111</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>216.6287558445192</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445192</v>
+        <v>201.3634259803389</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312208</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693237</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1902.030491263984</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1680.26387583351</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1391.161008959154</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="V10" t="n">
-        <v>1136.476520753267</v>
+        <v>1056.199744578928</v>
       </c>
       <c r="W10" t="n">
-        <v>847.0593507163063</v>
+        <v>766.7825745419677</v>
       </c>
       <c r="X10" t="n">
-        <v>619.069799818289</v>
+        <v>538.7930236439504</v>
       </c>
       <c r="Y10" t="n">
-        <v>398.2772206747588</v>
+        <v>370.2996089082458</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5029,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168604</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M12" t="n">
-        <v>1307.627092998424</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>554.5813165460164</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C13" t="n">
-        <v>385.6451336181095</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D13" t="n">
-        <v>235.5284942057738</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2237.790261293512</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.188796316454</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.113569660651</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.429081454764</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.011911417804</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X13" t="n">
-        <v>957.0223605197863</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y13" t="n">
-        <v>736.2297813762561</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>119.2902967703784</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>814.4194208819168</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>664.3027814695811</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5747,10 +5749,10 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192412</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2408.358282821086</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2225.50344847599</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2225.50344847599</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1936.428221820188</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>251.562654109227</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249857</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2165.878320670274</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6212,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,16 +6232,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6248,25 +6250,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>3260.450525729772</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>3091.514342801865</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>2941.39770338953</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>2793.484609807137</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4507.978318053498</v>
       </c>
       <c r="T28" t="n">
-        <v>2075.386809063654</v>
+        <v>4288.376853076439</v>
       </c>
       <c r="U28" t="n">
-        <v>1786.311582407852</v>
+        <v>4214.190199700877</v>
       </c>
       <c r="V28" t="n">
-        <v>1786.311582407852</v>
+        <v>3959.50571149499</v>
       </c>
       <c r="W28" t="n">
-        <v>1496.894412370891</v>
+        <v>3670.08854145803</v>
       </c>
       <c r="X28" t="n">
-        <v>1268.904861472874</v>
+        <v>3442.098990560012</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>3442.098990560012</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168622</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6491,19 +6493,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6555,10 +6557,10 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>702.494410128409</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656818</v>
+        <v>533.5582272005022</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>383.4415877881666</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1877.026663243043</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1622.342175037156</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1332.925005000196</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1104.935454102178</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>884.1428749586485</v>
       </c>
     </row>
     <row r="32">
@@ -6680,37 +6682,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6725,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319324</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656818</v>
+        <v>929.7309773356187</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>779.6143379232831</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>631.7012443408901</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2333.093974969473</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2113.492509992414</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1824.417283336612</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1569.732795130726</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1280.315625093765</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.315625093765</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1280.315625093765</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,28 +6958,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>3047.140839595367</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>2878.20465666746</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150024</v>
+        <v>2728.088017255124</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942656</v>
+        <v>2728.088017255124</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>2581.198069757214</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380729</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>3449.581883569136</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>3228.789304425606</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7163,31 +7165,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7196,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7239,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>1098.667160263525</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656811</v>
+        <v>929.7309773356185</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>779.6143379232828</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797748</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1205.711814750804</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1205.711814750804</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7418,13 +7420,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7496,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380726</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.265941231132</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7731,19 +7733,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>716.6687843969308</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D46" t="n">
         <v>697.5276345711974</v>
@@ -7831,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X46" t="n">
-        <v>1198.22892174168</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>186.4490126143854</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8070,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>54.95314511566482</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8298,7 +8300,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>224.3355197601762</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8309,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039161</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,22 +8528,22 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>154.0169020165177</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071653</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8553,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23422,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.32043864788569</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>252.5180899036441</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>112.4047682534897</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>32.8926045706001</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>28.15649395853811</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>184.1427240179491</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>5.506781756523537</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>96.94647126761451</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>212.7396875474378</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>186.7544012944512</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>134.6711151870852</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25320,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>146.0084629450576</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25372,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>73.85777223953107</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25609,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>131.6786642641545</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>98.0886482559152</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630230.9679796455</v>
+        <v>630230.9679796454</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>623100.6549783604</v>
+        <v>630230.9679796454</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>623100.6549783604</v>
+        <v>630230.9679796454</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>623100.6549783604</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642836</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642828</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642832</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900058</v>
+        <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900059</v>
+      </c>
+      <c r="G2" t="n">
+        <v>807146.5996900056</v>
+      </c>
+      <c r="H2" t="n">
+        <v>807146.5996900066</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.5996900062</v>
+      </c>
+      <c r="N2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="H2" t="n">
+      <c r="O2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="I2" t="n">
+      <c r="P2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="K2" t="n">
-        <v>821041.7698642849</v>
-      </c>
-      <c r="L2" t="n">
-        <v>821041.7698642836</v>
-      </c>
-      <c r="M2" t="n">
-        <v>821041.7698642837</v>
-      </c>
-      <c r="N2" t="n">
-        <v>821041.7698642836</v>
-      </c>
-      <c r="O2" t="n">
-        <v>821041.7698642832</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26366,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.741612106</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>68537.8106996862</v>
+        <v>1.104386423581413e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.104386423581413e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808325</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732016</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673192</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
@@ -26439,22 +26441,22 @@
         <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731971</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982543</v>
+        <v>8117.312426732108</v>
       </c>
       <c r="L4" t="n">
-        <v>16108.17168982545</v>
+        <v>8117.312426732108</v>
       </c>
       <c r="M4" t="n">
-        <v>16108.17168982551</v>
+        <v>8117.31242673202</v>
       </c>
       <c r="N4" t="n">
-        <v>16108.17168982544</v>
+        <v>8117.31242673212</v>
       </c>
       <c r="O4" t="n">
-        <v>16108.17168982543</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.7864133448</v>
+        <v>-520965.7864133447</v>
       </c>
       <c r="C6" t="n">
-        <v>422364.7404927004</v>
+        <v>593785.997162575</v>
       </c>
       <c r="D6" t="n">
-        <v>625803.4821048066</v>
+        <v>593785.997162575</v>
       </c>
       <c r="E6" t="n">
-        <v>372494.2956320115</v>
+        <v>190421.3158148212</v>
       </c>
       <c r="F6" t="n">
-        <v>697906.757439367</v>
+        <v>697906.7574393667</v>
       </c>
       <c r="G6" t="n">
-        <v>697906.7574393674</v>
+        <v>697906.7574393668</v>
       </c>
       <c r="H6" t="n">
-        <v>697906.757439367</v>
+        <v>697906.7574393677</v>
       </c>
       <c r="I6" t="n">
         <v>697906.7574393674</v>
       </c>
       <c r="J6" t="n">
-        <v>530301.5796293847</v>
+        <v>530301.5796293844</v>
       </c>
       <c r="K6" t="n">
-        <v>633231.6716208579</v>
+        <v>697906.7574393668</v>
       </c>
       <c r="L6" t="n">
-        <v>701769.4823205427</v>
+        <v>697906.7574393668</v>
       </c>
       <c r="M6" t="n">
-        <v>616714.4543850312</v>
+        <v>565299.4637104406</v>
       </c>
       <c r="N6" t="n">
-        <v>701769.4823205428</v>
+        <v>697906.7574393671</v>
       </c>
       <c r="O6" t="n">
-        <v>701769.4823205423</v>
+        <v>697906.7574393671</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393674</v>
+        <v>697906.7574393671</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>640.5848321000394</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26813,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203969</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26947,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27012,16 +27014,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.123455999609</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022538</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="3">
@@ -27258,16 +27260,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.123455999609</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>209.6945478584891</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>15.48408607227702</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>125.022886364096</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>83.92417752719183</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>45.15749830487792</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>10.96457916422372</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27782,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>102.2542614460712</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>106.3941952245086</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,20 +27855,20 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3.981069783415364</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0031817823375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>164.7576090751782</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>51.77617276374724</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -29509,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>1.380483029476766e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203969</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,34 +31041,34 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31075,13 +31077,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,34 +31120,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31154,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>386.7287743289959</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>359.7678776111903</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>242.2322097768141</v>
+        <v>164.2853229338202</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447131</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>156.3072281639545</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,10 +32788,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093089</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32798,19 +32800,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33025,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33037,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33275,13 +33277,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,7 +33502,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>146.0225991093089</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,7 +33736,7 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -33749,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33916,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043711</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33971,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>490.507583235568</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34153,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34214,7 +34216,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>164.2853229338207</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34228,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>285.8867128925984</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34366,7 +34368,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34451,10 +34453,10 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>518.439455159358</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34466,7 +34468,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34699,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>373.0365088578702</v>
+        <v>451.0527332560635</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>390.377827111788</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>522.0158803980265</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.587496243485</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>451.697262654368</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>640.5848321000394</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>244.1325298845514</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>217.633843689172</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>103.6778299969399</v>
+        <v>25.73094315394599</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36202,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648388</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36358,7 +36360,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36434,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134949948</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36446,19 +36448,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36685,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36923,13 +36925,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" t="n">
         <v>220.9409070342396</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>8.181160134949948</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37397,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556938</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.0464832629535</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37876,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>151.9123054782682</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>376.3054212373396</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38114,7 +38116,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4048709.870444609</v>
+        <v>4044572.713194458</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>416855.1052283176</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,16 +667,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>172.2358222137727</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>83.5398096929179</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,7 +819,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>196.4017961483597</v>
       </c>
       <c r="W4" t="n">
-        <v>202.5988208093992</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>255.8610542575275</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>196.6997841156808</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>24.55276019063761</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>114.3545007727033</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>259.6580847920589</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987943</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>247.0641803450467</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705011</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542875</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>166.8084805883475</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>99.97427419834158</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W13" t="n">
-        <v>34.0049084329469</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="14">
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.930370072263</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D16" t="n">
-        <v>36.21070476472267</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576114035</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C19" t="n">
-        <v>120.7871326503973</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.906592471262</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695516</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>18.70843787977617</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V22" t="n">
-        <v>67.99491930587892</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.799772605719686</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>211.8986685707647</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="26">
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U28" t="n">
-        <v>73.44478684180632</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012154</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>99.43007309479287</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.433962646569</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012154</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>46.35517081455926</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>19.51567534721111</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>105.9742079424061</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229311</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016445</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>35.56815683447337</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>906.1570541554036</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="C2" t="n">
-        <v>906.1570541554036</v>
+        <v>904.8820361188236</v>
       </c>
       <c r="D2" t="n">
-        <v>547.8913555486531</v>
+        <v>546.6163375120732</v>
       </c>
       <c r="E2" t="n">
-        <v>373.9157775549434</v>
+        <v>546.6163375120732</v>
       </c>
       <c r="F2" t="n">
-        <v>366.9702768057399</v>
+        <v>135.6304327224656</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
         <v>51.24678656800311</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>906.1570541554036</v>
+        <v>1291.481876182945</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.2629842544534</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C4" t="n">
-        <v>517.2629842544534</v>
+        <v>349.2765195627319</v>
       </c>
       <c r="D4" t="n">
-        <v>367.1463448421176</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
         <v>51.24678656800311</v>
@@ -4488,7 +4488,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4497,7 +4497,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4509,31 +4509,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1124.349301773071</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1124.349301773071</v>
+        <v>1438.060467399387</v>
       </c>
       <c r="W4" t="n">
-        <v>919.7040282282233</v>
+        <v>1148.643297362426</v>
       </c>
       <c r="X4" t="n">
-        <v>919.7040282282233</v>
+        <v>920.6537464644088</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.9114490846931</v>
+        <v>699.8611673208786</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1507.692260213069</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C5" t="n">
-        <v>1138.729743272658</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D5" t="n">
-        <v>780.4640446659073</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>394.6757920676631</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>387.7302913184596</v>
+        <v>62.91113280331021</v>
       </c>
       <c r="G5" t="n">
-        <v>376.0659450831525</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.7553530872922</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923563</v>
@@ -4585,7 +4585,7 @@
         <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
         <v>2542.250581723852</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926627</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532452</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532452</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="V5" t="n">
-        <v>1897.831592188881</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="W5" t="n">
-        <v>1897.831592188881</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="X5" t="n">
-        <v>1897.831592188881</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y5" t="n">
-        <v>1507.692260213069</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310615</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L6" t="n">
-        <v>815.1145481251077</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084328</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681273</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>620.8411572468201</v>
+        <v>689.9034178578802</v>
       </c>
       <c r="C7" t="n">
-        <v>451.9049743189132</v>
+        <v>520.9672349299733</v>
       </c>
       <c r="D7" t="n">
-        <v>451.9049743189132</v>
+        <v>370.8505955176375</v>
       </c>
       <c r="E7" t="n">
-        <v>303.9918807365201</v>
+        <v>222.9375019352444</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>76.04755443733407</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.24678656800315</v>
       </c>
       <c r="J7" t="n">
         <v>76.71595955312205</v>
@@ -4752,25 +4752,25 @@
         <v>1636.446120074498</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234359</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T7" t="n">
-        <v>1324.307775494254</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U7" t="n">
-        <v>1324.307775494254</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V7" t="n">
-        <v>1069.623287288367</v>
+        <v>1381.761631868611</v>
       </c>
       <c r="W7" t="n">
-        <v>1069.623287288367</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X7" t="n">
-        <v>841.6337363903502</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="Y7" t="n">
-        <v>620.8411572468201</v>
+        <v>871.5518826881199</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1202.59552936621</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C8" t="n">
-        <v>1202.59552936621</v>
+        <v>690.4032258886166</v>
       </c>
       <c r="D8" t="n">
-        <v>844.329830759459</v>
+        <v>332.1375272818661</v>
       </c>
       <c r="E8" t="n">
-        <v>844.329830759459</v>
+        <v>69.85663355251366</v>
       </c>
       <c r="F8" t="n">
-        <v>433.3439259698515</v>
+        <v>62.91113280331018</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816089</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230819</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740842</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723853</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400158</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926628</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532453</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>1979.334701406143</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>1979.334701406143</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>1979.334701406143</v>
+        <v>2209.570673130042</v>
       </c>
       <c r="X8" t="n">
-        <v>1979.334701406143</v>
+        <v>1836.104914868962</v>
       </c>
       <c r="Y8" t="n">
-        <v>1589.195369430331</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1489515180663</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>870.3292415458907</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1233.591260505111</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803389</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.24678656800315</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.24678656800315</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800315</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312208</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693237</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
         <v>824.219460709659</v>
@@ -4986,28 +4986,28 @@
         <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1056.199744578928</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>766.7825745419677</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>538.7930236439504</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.2996089082458</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5023,28 +5023,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168604</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.485273605118</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>194.800778399832</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>194.800778399832</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.502065570314</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273909</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273909</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703114</v>
+        <v>653.7474797708866</v>
       </c>
       <c r="C16" t="n">
-        <v>526.5658826424045</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518381</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541322</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.27973288552</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011261</v>
       </c>
     </row>
     <row r="17">
@@ -5500,13 +5500,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5515,10 +5515,10 @@
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708866</v>
       </c>
       <c r="C19" t="n">
-        <v>391.8463960427007</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D19" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578599</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518381</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541322</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.27973288552</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679634</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642673</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744656</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011261</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5770,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5782,19 +5782,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>194.800778399832</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>194.800778399832</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>194.800778399832</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>194.800778399832</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V22" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W22" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X22" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y22" t="n">
-        <v>948.5505208511906</v>
+        <v>695.502065570314</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5992,7 +5992,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400744</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121676</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270477</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2165.878320670274</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1876.803094014472</v>
+        <v>1688.385853854708</v>
       </c>
       <c r="V25" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W25" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611861</v>
       </c>
       <c r="X25" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138439</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>695.502065570314</v>
       </c>
     </row>
     <row r="26">
@@ -6220,13 +6220,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,16 +6302,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
         <v>1373.553594266881</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3260.450525729772</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>3091.514342801865</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>2941.39770338953</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>2793.484609807137</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U28" t="n">
-        <v>4214.190199700877</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V28" t="n">
-        <v>3959.50571149499</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>3670.08854145803</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>3442.098990560012</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>3442.098990560012</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2297.690135143765</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.494410128409</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>533.5582272005022</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>383.4415877881666</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>235.5284942057736</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>235.5284942057736</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1877.026663243043</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.342175037156</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1332.925005000196</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1104.935454102178</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>884.1428749586485</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6682,22 +6682,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6727,25 +6727,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232831</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408901</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429798</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578599</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2333.093974969473</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2113.492509992414</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1824.417283336612</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1569.732795130726</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.315625093765</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.315625093765</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093765</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3047.140839595367</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.20465666746</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.088017255124</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.088017255124</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2581.198069757214</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.25592267304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3677.571434467153</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.571434467153</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.581883569136</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.789304425606</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192591</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7198,28 +7198,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7241,34 +7241,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263525</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356185</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232828</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408898</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429797</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578598</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797748</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487569</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.46108051051</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854708</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648821</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648821</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>1205.711814750804</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>1205.711814750804</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,25 +7724,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,16 +8072,16 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54.95314511566482</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.327346787834</v>
       </c>
       <c r="L6" t="n">
-        <v>224.3355197601762</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8309,13 +8309,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039161</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154985</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
-        <v>154.0169020165177</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071653</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154984</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382458953</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856539</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>252.5180899036441</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>112.4047682534897</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.4949402405041</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>46.45968844823057</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012154</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038248</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>121.5862749664475</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>184.1427240179491</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>138.494940240504</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>5.506781756523537</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U28" t="n">
-        <v>212.7396875474378</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>186.7544012944512</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
-        <v>134.6711151870852</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>146.0084629450576</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>73.85777223953107</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>131.6786642641545</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642836</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="C2" t="n">
+        <v>821041.7698642834</v>
+      </c>
+      <c r="D2" t="n">
         <v>821041.7698642835</v>
-      </c>
-      <c r="D2" t="n">
-        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900059</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="G2" t="n">
-        <v>807146.5996900056</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900066</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="I2" t="n">
-        <v>807146.5996900063</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="J2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900065</v>
       </c>
       <c r="K2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900062</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.599690006</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
+        <v>807146.5996900065</v>
+      </c>
+      <c r="O2" t="n">
         <v>807146.5996900063</v>
       </c>
-      <c r="O2" t="n">
-        <v>807146.599690006</v>
-      </c>
       <c r="P2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>1.104386423581413e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.104386423581413e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26423,37 +26423,37 @@
         <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.31242673212</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.31242673192</v>
+        <v>8117.312426732013</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426732045</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732045</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732024</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732108</v>
+        <v>8117.312426732038</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426732108</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
-        <v>8117.31242673202</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="N4" t="n">
-        <v>8117.31242673212</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984472</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.77243984476</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984473</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984475</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984476</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.7864133447</v>
+        <v>-520965.786413345</v>
       </c>
       <c r="C6" t="n">
-        <v>593785.997162575</v>
+        <v>593785.9971625748</v>
       </c>
       <c r="D6" t="n">
-        <v>593785.997162575</v>
+        <v>593785.9971625751</v>
       </c>
       <c r="E6" t="n">
-        <v>190421.3158148212</v>
+        <v>190073.9365604641</v>
       </c>
       <c r="F6" t="n">
-        <v>697906.7574393667</v>
+        <v>697559.37818501</v>
       </c>
       <c r="G6" t="n">
-        <v>697906.7574393668</v>
+        <v>697559.37818501</v>
       </c>
       <c r="H6" t="n">
-        <v>697906.7574393677</v>
+        <v>697559.37818501</v>
       </c>
       <c r="I6" t="n">
-        <v>697906.7574393674</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="J6" t="n">
-        <v>530301.5796293844</v>
+        <v>529954.200375028</v>
       </c>
       <c r="K6" t="n">
-        <v>697906.7574393668</v>
+        <v>697559.37818501</v>
       </c>
       <c r="L6" t="n">
-        <v>697906.7574393668</v>
+        <v>697559.3781850103</v>
       </c>
       <c r="M6" t="n">
-        <v>565299.4637104406</v>
+        <v>564952.0844560837</v>
       </c>
       <c r="N6" t="n">
-        <v>697906.7574393671</v>
+        <v>697559.3781850105</v>
       </c>
       <c r="O6" t="n">
-        <v>697906.7574393671</v>
+        <v>697559.3781850104</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393671</v>
+        <v>697559.3781850104</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175396</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26792,16 +26792,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000393</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000394</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26949,7 +26949,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,16 +27014,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27260,16 +27260,16 @@
         <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.123455999609</v>
+        <v>532.1234559996092</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,19 +27387,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>209.6945478584891</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>328.0078930800361</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
@@ -27590,19 +27590,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>55.73584717546831</v>
       </c>
       <c r="W4" t="n">
-        <v>83.92417752719183</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>45.15749830487792</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>173.0313165627882</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>141.7538398541666</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,10 +27824,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>106.3941952245086</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>122.2722852802029</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>3.981069783415364</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983992</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>51.77617276374724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="14">
@@ -28335,7 +28335,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-7.330472653524714e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="17">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.51582450295488e-13</v>
       </c>
     </row>
     <row r="26">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.216893335571513e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>1.380483029476766e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31047,28 +31047,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31083,7 +31083,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,7 +31120,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31132,10 +31132,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31144,7 +31144,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31156,10 +31156,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31205,19 +31205,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181061</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.4562495533618</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491901</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857145</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767382</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
         <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342227</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166597</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147053</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235313</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.567854187451</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31600,22 +31600,22 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436497</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575842</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.428935217844</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
         <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.065366204059</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762074</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405676</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997904</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000176</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31676,19 +31676,19 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231073</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
         <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753788</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
         <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227909</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
         <v>264.0341136849628</v>
@@ -31700,22 +31700,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169138</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097485</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
         <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3541376752348</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069564</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024989</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>386.7287743289959</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>359.7678776111903</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>574.2721069128561</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,16 +32563,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>156.3072281639545</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32788,7 +32788,7 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
@@ -32803,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>424.0909547148531</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33022,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33280,13 +33280,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q30" t="n">
-        <v>360.9226811202611</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,16 +33751,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>225.4828684302377</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043711</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,7 +33979,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34207,16 +34207,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34365,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34453,19 +34453,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>518.439455159358</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34701,28 +34701,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34792,13 +34792,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>390.377827111788</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>436.2707275254367</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34865,7 +34865,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>379.9148430313189</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0158803980265</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
@@ -35029,13 +35029,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000392</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225038</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.806230106751</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
         <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376318</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949729</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402558</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939913</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.587496243485</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>451.697262654368</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820407</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000394</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961232</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235324</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870598</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35348,10 +35348,10 @@
         <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818073</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805409</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>244.1325298845514</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>217.633843689172</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>431.6758624684117</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,16 +36211,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>22.33282074962425</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>281.4947102704086</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295352</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998985</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36670,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36837,7 +36837,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.9409070342396</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,16 +37399,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>82.88662398579324</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.866084390239</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,7 +37627,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.0464832629535</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38013,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,19 +38101,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>376.3054212373396</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_40.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4044572.713194458</v>
+        <v>4046333.243497245</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.48435851</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283176</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,19 +661,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>83.5398096929179</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>43.30112502764935</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>196.4017961483597</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,19 +898,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>12.36421235810552</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>196.6997841156808</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>24.55276019063761</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>3.667208168764041</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1141,10 +1141,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>259.6580847920589</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>73.24756871688444</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542875</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>99.97427419834158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016445</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272881</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U13" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695516</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462237</v>
+        <v>1.799772605717012</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856539</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>42.53134576114035</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856539</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>108.906592471262</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695516</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>18.70843787977617</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>78.9105100867805</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819372</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.799772605719686</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012154</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272881</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>51.36569740310337</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>20.88994825141581</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4140,10 +4140,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>31.40247677522955</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>904.8820361188236</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C2" t="n">
-        <v>904.8820361188236</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D2" t="n">
-        <v>546.6163375120732</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="E2" t="n">
-        <v>546.6163375120732</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F2" t="n">
-        <v>135.6304327224656</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4336,10 +4336,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L3" t="n">
-        <v>932.4978103100999</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M3" t="n">
-        <v>1295.75982926932</v>
+        <v>1218.104987164206</v>
       </c>
       <c r="N3" t="n">
-        <v>1683.044957866265</v>
+        <v>1605.390115761151</v>
       </c>
       <c r="O3" t="n">
-        <v>2015.115393042427</v>
+        <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.2127024906389</v>
+        <v>2013.576367813028</v>
       </c>
       <c r="C4" t="n">
-        <v>349.2765195627319</v>
+        <v>1844.640184885121</v>
       </c>
       <c r="D4" t="n">
-        <v>199.1598801503962</v>
+        <v>1694.523545472786</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>1546.610451890393</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>1399.720504392482</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>1231.734039700761</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>1082.995141564267</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>977.1399948936603</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>1002.609167878779</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>1174.299679627705</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>1750.112669035316</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.98193257148</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>2309.019775324692</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>2416.017411786798</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>2416.017411786798</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>2416.017411786798</v>
       </c>
       <c r="V4" t="n">
-        <v>1438.060467399387</v>
+        <v>2416.017411786798</v>
       </c>
       <c r="W4" t="n">
-        <v>1148.643297362426</v>
+        <v>2416.017411786798</v>
       </c>
       <c r="X4" t="n">
-        <v>920.6537464644088</v>
+        <v>2416.017411786798</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.8611673208786</v>
+        <v>2195.224832643268</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1586.913505738324</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="C5" t="n">
-        <v>1217.950988797912</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="D5" t="n">
-        <v>859.685290191162</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="E5" t="n">
-        <v>473.8970375929177</v>
+        <v>474.7217947496364</v>
       </c>
       <c r="F5" t="n">
-        <v>62.91113280331021</v>
+        <v>63.73588996002889</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872922</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400157</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400157</v>
+        <v>1624.92672505065</v>
       </c>
       <c r="X5" t="n">
-        <v>2363.652677778257</v>
+        <v>1251.46096678957</v>
       </c>
       <c r="Y5" t="n">
-        <v>1973.513345802446</v>
+        <v>861.3216348137582</v>
       </c>
     </row>
     <row r="6">
@@ -4640,25 +4640,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380219</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
         <v>1991.864164601821</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>689.9034178578802</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C7" t="n">
-        <v>520.9672349299733</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D7" t="n">
-        <v>370.8505955176375</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E7" t="n">
-        <v>222.9375019352444</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F7" t="n">
-        <v>76.04755443733407</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800315</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1381.761631868611</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W7" t="n">
-        <v>1092.34446183165</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X7" t="n">
-        <v>1092.34446183165</v>
+        <v>1088.64021115613</v>
       </c>
       <c r="Y7" t="n">
-        <v>871.5518826881199</v>
+        <v>867.8476320126</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886166</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818661</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251366</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130042</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868962</v>
+        <v>2363.652677778257</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380219</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694938</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4916,7 +4916,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4925,7 +4925,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4950,52 +4950,52 @@
         <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
         <v>1584.950414897297</v>
@@ -5023,19 +5023,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5044,7 +5044,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5068,13 +5068,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123002</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400744</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121676</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>194.800778399832</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>194.800778399832</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487569</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.46108051051</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854708</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138439</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.502065570314</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708866</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.15024091081</v>
@@ -5451,37 +5451,37 @@
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518381</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541322</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.27973288552</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679634</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642673</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744656</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011261</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,19 +5597,19 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708866</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429798</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578599</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518381</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541322</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.27973288552</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679634</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642673</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744656</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011261</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5782,7 +5782,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5834,13 +5834,13 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
         <v>2001.151557821488</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400744</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121676</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>194.800778399832</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>194.800778399832</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>194.800778399832</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>194.800778399832</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.46108051051</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854708</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648822</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611861</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138439</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.502065570314</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5980,7 +5980,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6074,16 +6074,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400744</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121676</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121676</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270477</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000581</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854708</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138439</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.502065570314</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6223,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,37 +6478,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6554,10 +6554,10 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
         <v>2319.799627685893</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,40 +6682,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.672526468518</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>538.7363435406111</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2390.881471216014</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2171.280006238955</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1882.204779583153</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1627.520291377266</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1338.103121340305</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1110.113570442288</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>889.3209912987577</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>835.5837926935558</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>666.6476097656489</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>516.5309703533131</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565343</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667326</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1017.232257523796</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5911984019043</v>
+        <v>240.446544241743</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787834</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>45.44677382458953</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856539</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.4949402405068</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>138.4949402405041</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012154</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038248</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>121.5862749664475</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.494940240504</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>166.0397529241849</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>124.5310997715154</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,10 +26028,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>115.0314858713396</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>612679.2773476525</v>
+        <v>612679.2773476524</v>
       </c>
     </row>
     <row r="10">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>612679.2773476524</v>
+        <v>612679.2773476525</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
         <v>821041.7698642834</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642835</v>
+        <v>821041.7698642834</v>
       </c>
       <c r="E2" t="n">
-        <v>807146.5996900059</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.599690006</v>
       </c>
       <c r="G2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="H2" t="n">
-        <v>807146.5996900062</v>
+        <v>807146.5996900061</v>
       </c>
       <c r="I2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="J2" t="n">
+        <v>807146.5996900061</v>
+      </c>
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="M2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="N2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="O2" t="n">
+        <v>807146.5996900066</v>
+      </c>
+      <c r="P2" t="n">
         <v>807146.5996900065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="M2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="O2" t="n">
-        <v>807146.5996900063</v>
-      </c>
-      <c r="P2" t="n">
-        <v>807146.5996900063</v>
       </c>
     </row>
     <row r="3">
@@ -26368,16 +26368,16 @@
         <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618636</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.31242673212</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732013</v>
+        <v>8117.312426731918</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732045</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732045</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426732024</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426732038</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
         <v>8117.312426731974</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.786413345</v>
+        <v>-520965.7864133449</v>
       </c>
       <c r="C6" t="n">
-        <v>593785.9971625748</v>
+        <v>593785.9971625751</v>
       </c>
       <c r="D6" t="n">
-        <v>593785.9971625751</v>
+        <v>593785.9971625749</v>
       </c>
       <c r="E6" t="n">
-        <v>190073.9365604641</v>
+        <v>190386.5778893854</v>
       </c>
       <c r="F6" t="n">
-        <v>697559.37818501</v>
+        <v>697872.0195139308</v>
       </c>
       <c r="G6" t="n">
-        <v>697559.37818501</v>
+        <v>697872.0195139319</v>
       </c>
       <c r="H6" t="n">
-        <v>697559.37818501</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="I6" t="n">
-        <v>697559.3781850103</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="J6" t="n">
-        <v>529954.200375028</v>
+        <v>530266.8417039489</v>
       </c>
       <c r="K6" t="n">
-        <v>697559.37818501</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="L6" t="n">
-        <v>697559.3781850103</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="M6" t="n">
-        <v>564952.0844560837</v>
+        <v>565264.7257850047</v>
       </c>
       <c r="N6" t="n">
-        <v>697559.3781850105</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="O6" t="n">
-        <v>697559.3781850104</v>
+        <v>697872.0195139319</v>
       </c>
       <c r="P6" t="n">
-        <v>697559.3781850104</v>
+        <v>697872.0195139318</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000387</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000389</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000393</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,10 +26968,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27011,20 +27011,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996095</v>
+      </c>
+      <c r="F4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996092</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996095</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>532.1234559996095</v>
+      </c>
+      <c r="N4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>532.1234559996092</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>68.09417367807686</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>328.0078930800361</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>151.3613353340881</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,13 +27596,13 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>55.73584717546831</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>399.1834904148484</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>173.0313165627882</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27785,13 +27785,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>141.7538398541666</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>222.0424472202731</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27861,10 +27861,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>122.2722852802029</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>296.4835319615846</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28028,7 +28028,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983992</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28341,10 +28341,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,19 +28377,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-7.330472653524714e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28575,13 +28575,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -28851,10 +28851,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>1.51582450295488e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -29526,7 +29526,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,25 +31442,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31469,16 +31469,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,22 +31849,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>729.0844763571695</v>
       </c>
       <c r="N12" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>574.2721069128561</v>
+        <v>361.7519118779082</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32317,10 +32317,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543357</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32332,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,7 +32563,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32794,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32806,7 +32806,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33034,13 +33034,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33274,13 +33274,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>154.5219885631796</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34795,13 +34795,13 @@
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>436.2707275254367</v>
+        <v>490.1260733652754</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313189</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>491.0077074256851</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,22 +35497,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>586.9504424351511</v>
       </c>
       <c r="N12" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>431.6758624684117</v>
+        <v>219.1556674334638</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096351</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35965,10 +35965,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997668</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35980,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,7 +36211,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36454,7 +36454,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295352</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096351</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998985</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>20.54758114884936</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
